--- a/mlearning/data/Total_Lasso_Feature_Importance.xlsx
+++ b/mlearning/data/Total_Lasso_Feature_Importance.xlsx
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.002829111407944814</v>
+        <v>-0.002783514944156257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003043089786447899</v>
+        <v>0.002764222041875853</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -519,7 +519,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.003437205309547126</v>
+        <v>-0.0009125322743286688</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0022290463269572</v>
+        <v>0.001563538873445561</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -543,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001538824709986696</v>
+        <v>0.00258778898275001</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.008648212251244625</v>
+        <v>0.00694726970420857</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -559,7 +559,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -567,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0009569939388877252</v>
+        <v>0.001369478533350454</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -631,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004293063483383926</v>
+        <v>0.005293414351518913</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -639,7 +639,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.001696699568979748</v>
+        <v>-0.001655483510937249</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -663,7 +663,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0005133558432677668</v>
+        <v>0.0008021617664512252</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -671,7 +671,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004208158306623834</v>
+        <v>0.001761746922635078</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -679,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.001269625055175651</v>
+        <v>-0.0010475606810054</v>
       </c>
     </row>
   </sheetData>
